--- a/GanttChart.xlsx
+++ b/GanttChart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\SoftwareEng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F7A4EF7-432A-4E32-BF9F-493A89ECF0D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AADCF95-7932-4645-B415-010385E0A5C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="105">
   <si>
     <t>GANTT CHART TEMPLATE</t>
   </si>
@@ -662,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -793,6 +793,13 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -805,26 +812,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2269,80 +2270,80 @@
       <c r="AJ5" s="2"/>
     </row>
     <row r="6" spans="1:36" ht="14.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="69" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="64" t="s">
+      <c r="I6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="64" t="s">
+      <c r="J6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="67"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="67" t="s">
+      <c r="K6" s="72"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="66" t="s">
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="67" t="s">
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="65"/>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="66" t="s">
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="70"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
-      <c r="AH6" s="65"/>
-      <c r="AI6" s="65"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
+      <c r="AH6" s="70"/>
+      <c r="AI6" s="70"/>
       <c r="AJ6" s="35"/>
     </row>
     <row r="7" spans="1:36" ht="14.4">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="35"/>
       <c r="L7" s="35"/>
       <c r="M7" s="35"/>
@@ -2869,6 +2870,13 @@
     <row r="50" ht="13.2"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -2877,13 +2885,6 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J23:J26 J28:J32 J34:J37 J9:J20">
     <cfRule type="colorScale" priority="1">
@@ -3007,16 +3008,16 @@
       <c r="AH2" s="2"/>
     </row>
     <row r="3" spans="1:34" ht="30" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
       <c r="I3" s="5"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
@@ -3118,72 +3119,72 @@
       <c r="AH5" s="2"/>
     </row>
     <row r="6" spans="1:34" ht="14.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="69" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="64" t="s">
+      <c r="G6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="64" t="s">
+      <c r="H6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I6" s="67"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="67" t="s">
+      <c r="I6" s="72"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="O6" s="65"/>
-      <c r="P6" s="65"/>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="66" t="s">
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="67" t="s">
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
-      <c r="AB6" s="65"/>
-      <c r="AC6" s="66" t="s">
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="70"/>
+      <c r="AB6" s="70"/>
+      <c r="AC6" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="AD6" s="65"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AG6" s="65"/>
+      <c r="AD6" s="70"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="70"/>
+      <c r="AG6" s="70"/>
       <c r="AH6" s="35"/>
     </row>
     <row r="7" spans="1:34" ht="14.4">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
       <c r="I7" s="35"/>
       <c r="J7" s="35"/>
       <c r="K7" s="35"/>
@@ -3860,11 +3861,6 @@
     <row r="50" ht="13.2"/>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="AC6:AG6"/>
-    <mergeCell ref="X6:AB6"/>
-    <mergeCell ref="S6:W6"/>
-    <mergeCell ref="I6:M6"/>
-    <mergeCell ref="N6:R6"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
@@ -3874,6 +3870,11 @@
     <mergeCell ref="F6:F7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="C6:C7"/>
+    <mergeCell ref="AC6:AG6"/>
+    <mergeCell ref="X6:AB6"/>
+    <mergeCell ref="S6:W6"/>
+    <mergeCell ref="I6:M6"/>
+    <mergeCell ref="N6:R6"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H13 H15:H18 H20:H24 H26:H29">
     <cfRule type="colorScale" priority="1">
@@ -3903,7 +3904,7 @@
   <dimension ref="A1:CF996"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -3999,7 +4000,7 @@
       <c r="CB1" t="s">
         <v>67</v>
       </c>
-      <c r="CC1" s="79">
+      <c r="CC1" s="66">
         <v>43857</v>
       </c>
     </row>
@@ -4074,20 +4075,20 @@
       <c r="CB2" t="s">
         <v>68</v>
       </c>
-      <c r="CC2" s="79">
+      <c r="CC2" s="66">
         <v>43952</v>
       </c>
     </row>
     <row r="3" spans="1:84" ht="30" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="5"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -4158,7 +4159,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="78"/>
+      <c r="I4" s="65"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -4220,7 +4221,7 @@
       <c r="CE4" t="s">
         <v>69</v>
       </c>
-      <c r="CF4" s="79">
+      <c r="CF4" s="66">
         <v>43857</v>
       </c>
     </row>
@@ -4295,143 +4296,143 @@
       <c r="CE5" t="s">
         <v>70</v>
       </c>
-      <c r="CF5" s="79">
+      <c r="CF5" s="66">
         <v>43864</v>
       </c>
     </row>
     <row r="6" spans="1:84" ht="14.4">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="64" t="s">
+      <c r="C6" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="64" t="s">
+      <c r="F6" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="72" t="s">
+      <c r="H6" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
-      <c r="K6" s="73"/>
-      <c r="L6" s="73"/>
-      <c r="M6" s="74" t="s">
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="73"/>
-      <c r="O6" s="73"/>
-      <c r="P6" s="73"/>
-      <c r="Q6" s="73"/>
-      <c r="R6" s="72" t="s">
+      <c r="N6" s="76"/>
+      <c r="O6" s="76"/>
+      <c r="P6" s="76"/>
+      <c r="Q6" s="76"/>
+      <c r="R6" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="S6" s="73"/>
-      <c r="T6" s="73"/>
-      <c r="U6" s="73"/>
-      <c r="V6" s="73"/>
-      <c r="W6" s="74" t="s">
+      <c r="S6" s="76"/>
+      <c r="T6" s="76"/>
+      <c r="U6" s="76"/>
+      <c r="V6" s="76"/>
+      <c r="W6" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="73"/>
-      <c r="Y6" s="73"/>
-      <c r="Z6" s="73"/>
-      <c r="AA6" s="73"/>
-      <c r="AB6" s="72" t="s">
+      <c r="X6" s="76"/>
+      <c r="Y6" s="76"/>
+      <c r="Z6" s="76"/>
+      <c r="AA6" s="76"/>
+      <c r="AB6" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="AC6" s="73"/>
-      <c r="AD6" s="73"/>
-      <c r="AE6" s="73"/>
-      <c r="AF6" s="73"/>
-      <c r="AG6" s="74" t="s">
+      <c r="AC6" s="76"/>
+      <c r="AD6" s="76"/>
+      <c r="AE6" s="76"/>
+      <c r="AF6" s="76"/>
+      <c r="AG6" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="AH6" s="73"/>
-      <c r="AI6" s="73"/>
-      <c r="AJ6" s="73"/>
-      <c r="AK6" s="73"/>
-      <c r="AL6" s="72" t="s">
+      <c r="AH6" s="76"/>
+      <c r="AI6" s="76"/>
+      <c r="AJ6" s="76"/>
+      <c r="AK6" s="76"/>
+      <c r="AL6" s="75" t="s">
         <v>13</v>
       </c>
-      <c r="AM6" s="73"/>
-      <c r="AN6" s="73"/>
-      <c r="AO6" s="73"/>
-      <c r="AP6" s="73"/>
-      <c r="AQ6" s="74" t="s">
+      <c r="AM6" s="76"/>
+      <c r="AN6" s="76"/>
+      <c r="AO6" s="76"/>
+      <c r="AP6" s="76"/>
+      <c r="AQ6" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="AR6" s="73"/>
-      <c r="AS6" s="73"/>
-      <c r="AT6" s="73"/>
-      <c r="AU6" s="73"/>
-      <c r="AV6" s="72" t="s">
+      <c r="AR6" s="76"/>
+      <c r="AS6" s="76"/>
+      <c r="AT6" s="76"/>
+      <c r="AU6" s="76"/>
+      <c r="AV6" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="AW6" s="73"/>
-      <c r="AX6" s="73"/>
-      <c r="AY6" s="73"/>
-      <c r="AZ6" s="73"/>
-      <c r="BA6" s="72" t="s">
+      <c r="AW6" s="76"/>
+      <c r="AX6" s="76"/>
+      <c r="AY6" s="76"/>
+      <c r="AZ6" s="76"/>
+      <c r="BA6" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="BB6" s="73"/>
-      <c r="BC6" s="73"/>
-      <c r="BD6" s="73"/>
-      <c r="BE6" s="73"/>
-      <c r="BF6" s="72" t="s">
+      <c r="BB6" s="76"/>
+      <c r="BC6" s="76"/>
+      <c r="BD6" s="76"/>
+      <c r="BE6" s="76"/>
+      <c r="BF6" s="75" t="s">
         <v>17</v>
       </c>
-      <c r="BG6" s="73"/>
-      <c r="BH6" s="73"/>
-      <c r="BI6" s="73"/>
-      <c r="BJ6" s="73"/>
-      <c r="BK6" s="72" t="s">
+      <c r="BG6" s="76"/>
+      <c r="BH6" s="76"/>
+      <c r="BI6" s="76"/>
+      <c r="BJ6" s="76"/>
+      <c r="BK6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="BL6" s="73"/>
-      <c r="BM6" s="73"/>
-      <c r="BN6" s="73"/>
-      <c r="BO6" s="73"/>
-      <c r="BP6" s="72" t="s">
+      <c r="BL6" s="76"/>
+      <c r="BM6" s="76"/>
+      <c r="BN6" s="76"/>
+      <c r="BO6" s="76"/>
+      <c r="BP6" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="BQ6" s="73"/>
-      <c r="BR6" s="73"/>
-      <c r="BS6" s="73"/>
-      <c r="BT6" s="73"/>
-      <c r="BU6" s="72" t="s">
+      <c r="BQ6" s="76"/>
+      <c r="BR6" s="76"/>
+      <c r="BS6" s="76"/>
+      <c r="BT6" s="76"/>
+      <c r="BU6" s="75" t="s">
         <v>84</v>
       </c>
-      <c r="BV6" s="73"/>
-      <c r="BW6" s="73"/>
-      <c r="BX6" s="73"/>
-      <c r="BY6" s="73"/>
+      <c r="BV6" s="76"/>
+      <c r="BW6" s="76"/>
+      <c r="BX6" s="76"/>
+      <c r="BY6" s="76"/>
       <c r="CE6" t="s">
         <v>71</v>
       </c>
-      <c r="CF6" s="79">
+      <c r="CF6" s="66">
         <v>43871</v>
       </c>
     </row>
     <row r="7" spans="1:84" ht="14.4">
-      <c r="A7" s="65"/>
-      <c r="B7" s="65"/>
-      <c r="C7" s="65"/>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="77"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="79"/>
       <c r="H7" s="10" t="s">
         <v>19</v>
       </c>
@@ -4645,20 +4646,20 @@
       <c r="CE7" s="61" t="s">
         <v>72</v>
       </c>
-      <c r="CF7" s="79">
+      <c r="CF7" s="66">
         <v>43878</v>
       </c>
     </row>
     <row r="8" spans="1:84" ht="15.6">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="68" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="82"/>
+      <c r="G8" s="82"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16"/>
       <c r="J8" s="17"/>
@@ -4732,7 +4733,7 @@
       <c r="CE8" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="CF8" s="79">
+      <c r="CF8" s="66">
         <v>43885</v>
       </c>
     </row>
@@ -4750,7 +4751,7 @@
         <f>NETWORKDAYS(C9,D9)</f>
         <v>5</v>
       </c>
-      <c r="F9" s="80" t="s">
+      <c r="F9" s="67" t="s">
         <v>61</v>
       </c>
       <c r="G9" s="21">
@@ -4829,7 +4830,7 @@
       <c r="CE9" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="CF9" s="79">
+      <c r="CF9" s="66">
         <v>43892</v>
       </c>
     </row>
@@ -4847,7 +4848,7 @@
         <f t="shared" ref="E10:E14" si="0">NETWORKDAYS(C10,D10)</f>
         <v>4</v>
       </c>
-      <c r="F10" s="80" t="s">
+      <c r="F10" s="67" t="s">
         <v>89</v>
       </c>
       <c r="G10" s="21">
@@ -4926,12 +4927,12 @@
       <c r="CE10" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="CF10" s="79">
+      <c r="CF10" s="66">
         <v>43899</v>
       </c>
     </row>
     <row r="11" spans="1:84" ht="14.4">
-      <c r="B11" s="80" t="s">
+      <c r="B11" s="67" t="s">
         <v>85</v>
       </c>
       <c r="C11" s="29">
@@ -5023,12 +5024,12 @@
       <c r="CE11" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="CF11" s="79">
+      <c r="CF11" s="66">
         <v>43906</v>
       </c>
     </row>
     <row r="12" spans="1:84" ht="14.4">
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="67" t="s">
         <v>86</v>
       </c>
       <c r="C12" s="29">
@@ -5041,7 +5042,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="F12" s="80" t="s">
+      <c r="F12" s="67" t="s">
         <v>90</v>
       </c>
       <c r="G12" s="21">
@@ -5120,12 +5121,12 @@
       <c r="CE12" s="61" t="s">
         <v>77</v>
       </c>
-      <c r="CF12" s="79">
+      <c r="CF12" s="66">
         <v>43913</v>
       </c>
     </row>
     <row r="13" spans="1:84" ht="14.4">
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="67" t="s">
         <v>87</v>
       </c>
       <c r="C13" s="29">
@@ -5217,12 +5218,12 @@
       <c r="CE13" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="CF13" s="79">
+      <c r="CF13" s="66">
         <v>43920</v>
       </c>
     </row>
     <row r="14" spans="1:84" ht="14.4">
-      <c r="B14" s="80" t="s">
+      <c r="B14" s="67" t="s">
         <v>88</v>
       </c>
       <c r="C14" s="29">
@@ -5314,13 +5315,13 @@
       <c r="CE14" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="CF14" s="79">
+      <c r="CF14" s="66">
         <v>43927</v>
       </c>
     </row>
     <row r="15" spans="1:84" ht="14.4">
       <c r="A15" s="61"/>
-      <c r="B15" s="80" t="s">
+      <c r="B15" s="67" t="s">
         <v>93</v>
       </c>
       <c r="C15" s="29">
@@ -5409,18 +5410,18 @@
       <c r="BW15" s="25"/>
       <c r="BX15" s="25"/>
       <c r="BY15" s="27"/>
-      <c r="BZ15" s="25"/>
-      <c r="CA15" s="27"/>
+      <c r="BZ15" s="64"/>
+      <c r="CA15" s="64"/>
       <c r="CE15" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="CF15" s="79">
+      <c r="CF15" s="66">
         <v>43934</v>
       </c>
     </row>
     <row r="16" spans="1:84" ht="14.4">
       <c r="A16" s="61"/>
-      <c r="B16" s="80" t="s">
+      <c r="B16" s="67" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="29">
@@ -5509,16 +5510,18 @@
       <c r="BW16" s="25"/>
       <c r="BX16" s="25"/>
       <c r="BY16" s="27"/>
+      <c r="BZ16" s="64"/>
+      <c r="CA16" s="64"/>
       <c r="CE16" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="CF16" s="79">
+      <c r="CF16" s="66">
         <v>43941</v>
       </c>
     </row>
     <row r="17" spans="1:84" ht="14.4">
       <c r="A17" s="61"/>
-      <c r="B17" s="80" t="s">
+      <c r="B17" s="67" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="29">
@@ -5607,16 +5610,18 @@
       <c r="BW17" s="25"/>
       <c r="BX17" s="25"/>
       <c r="BY17" s="27"/>
+      <c r="BZ17" s="64"/>
+      <c r="CA17" s="64"/>
       <c r="CE17" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="CF17" s="79">
+      <c r="CF17" s="66">
         <v>43948</v>
       </c>
     </row>
     <row r="18" spans="1:84" ht="14.4">
       <c r="A18" s="61"/>
-      <c r="B18" s="80" t="s">
+      <c r="B18" s="67" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="29">
@@ -5705,10 +5710,12 @@
       <c r="BW18" s="25"/>
       <c r="BX18" s="25"/>
       <c r="BY18" s="27"/>
+      <c r="BZ18" s="64"/>
+      <c r="CA18" s="64"/>
     </row>
     <row r="19" spans="1:84" ht="14.4">
       <c r="A19" s="61"/>
-      <c r="B19" s="80" t="s">
+      <c r="B19" s="67" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="29">
@@ -5797,10 +5804,11 @@
       <c r="BW19" s="25"/>
       <c r="BX19" s="25"/>
       <c r="BY19" s="27"/>
+      <c r="BZ19" s="64"/>
     </row>
     <row r="20" spans="1:84" ht="14.4">
       <c r="A20" s="61"/>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="67" t="s">
         <v>98</v>
       </c>
       <c r="C20" s="29">
@@ -5892,19 +5900,10 @@
     </row>
     <row r="21" spans="1:84" ht="14.4">
       <c r="A21" s="61"/>
-      <c r="B21" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C21" s="29">
-        <v>43870</v>
-      </c>
-      <c r="D21" s="29">
-        <v>43876</v>
-      </c>
-      <c r="E21" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B21" s="67"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="18"/>
       <c r="G21" s="21">
         <v>0</v>
@@ -5982,19 +5981,10 @@
     </row>
     <row r="22" spans="1:84" ht="14.4">
       <c r="A22" s="61"/>
-      <c r="B22" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="29">
-        <v>43871</v>
-      </c>
-      <c r="D22" s="29">
-        <v>43877</v>
-      </c>
-      <c r="E22" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="18"/>
       <c r="G22" s="21">
         <v>0</v>
@@ -6072,19 +6062,10 @@
     </row>
     <row r="23" spans="1:84" ht="14.4">
       <c r="A23" s="61"/>
-      <c r="B23" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C23" s="29">
-        <v>43872</v>
-      </c>
-      <c r="D23" s="29">
-        <v>43878</v>
-      </c>
-      <c r="E23" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B23" s="67"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="18"/>
       <c r="G23" s="21">
         <v>0</v>
@@ -6162,19 +6143,10 @@
     </row>
     <row r="24" spans="1:84" ht="14.4">
       <c r="A24" s="61"/>
-      <c r="B24" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="29">
-        <v>43873</v>
-      </c>
-      <c r="D24" s="29">
-        <v>43879</v>
-      </c>
-      <c r="E24" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="18"/>
       <c r="G24" s="21">
         <v>0</v>
@@ -6252,19 +6224,10 @@
     </row>
     <row r="25" spans="1:84" ht="14.4">
       <c r="A25" s="61"/>
-      <c r="B25" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="29">
-        <v>43874</v>
-      </c>
-      <c r="D25" s="29">
-        <v>43880</v>
-      </c>
-      <c r="E25" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B25" s="67"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="18"/>
       <c r="G25" s="21">
         <v>0</v>
@@ -6342,19 +6305,10 @@
     </row>
     <row r="26" spans="1:84" ht="14.4">
       <c r="A26" s="61"/>
-      <c r="B26" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="29">
-        <v>43875</v>
-      </c>
-      <c r="D26" s="29">
-        <v>43881</v>
-      </c>
-      <c r="E26" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B26" s="67"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="20"/>
       <c r="F26" s="18"/>
       <c r="G26" s="21">
         <v>0</v>
@@ -6432,19 +6386,10 @@
     </row>
     <row r="27" spans="1:84" ht="14.4">
       <c r="A27" s="61"/>
-      <c r="B27" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C27" s="29">
-        <v>43876</v>
-      </c>
-      <c r="D27" s="29">
-        <v>43882</v>
-      </c>
-      <c r="E27" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B27" s="67"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
+      <c r="E27" s="20"/>
       <c r="F27" s="18"/>
       <c r="G27" s="21">
         <v>0</v>
@@ -6522,19 +6467,10 @@
     </row>
     <row r="28" spans="1:84" ht="14.4">
       <c r="A28" s="61"/>
-      <c r="B28" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="29">
-        <v>43877</v>
-      </c>
-      <c r="D28" s="29">
-        <v>43883</v>
-      </c>
-      <c r="E28" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B28" s="67"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="29"/>
+      <c r="E28" s="20"/>
       <c r="F28" s="18"/>
       <c r="G28" s="21">
         <v>0</v>
@@ -6612,19 +6548,10 @@
     </row>
     <row r="29" spans="1:84" ht="14.4">
       <c r="A29" s="61"/>
-      <c r="B29" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="29">
-        <v>43878</v>
-      </c>
-      <c r="D29" s="29">
-        <v>43884</v>
-      </c>
-      <c r="E29" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B29" s="67"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="29"/>
+      <c r="E29" s="20"/>
       <c r="F29" s="18"/>
       <c r="G29" s="21">
         <v>0</v>
@@ -6702,19 +6629,10 @@
     </row>
     <row r="30" spans="1:84" ht="14.4">
       <c r="A30" s="61"/>
-      <c r="B30" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C30" s="29">
-        <v>43879</v>
-      </c>
-      <c r="D30" s="29">
-        <v>43885</v>
-      </c>
-      <c r="E30" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="29"/>
+      <c r="E30" s="20"/>
       <c r="F30" s="18"/>
       <c r="G30" s="21">
         <v>0</v>
@@ -6792,19 +6710,10 @@
     </row>
     <row r="31" spans="1:84" ht="14.4">
       <c r="A31" s="61"/>
-      <c r="B31" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="29">
-        <v>43880</v>
-      </c>
-      <c r="D31" s="29">
-        <v>43886</v>
-      </c>
-      <c r="E31" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B31" s="67"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="29"/>
+      <c r="E31" s="20"/>
       <c r="F31" s="18"/>
       <c r="G31" s="21">
         <v>0</v>
@@ -6882,19 +6791,10 @@
     </row>
     <row r="32" spans="1:84" ht="15.75" customHeight="1">
       <c r="A32" s="61"/>
-      <c r="B32" s="80" t="s">
-        <v>88</v>
-      </c>
-      <c r="C32" s="29">
-        <v>43881</v>
-      </c>
-      <c r="D32" s="29">
-        <v>43887</v>
-      </c>
-      <c r="E32" s="20">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
+      <c r="B32" s="67"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="20"/>
       <c r="F32" s="18"/>
       <c r="G32" s="21">
         <v>0</v>
@@ -9942,6 +9842,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="AB6:AF6"/>
+    <mergeCell ref="R6:V6"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="BF6:BJ6"/>
+    <mergeCell ref="H6:L6"/>
+    <mergeCell ref="M6:Q6"/>
+    <mergeCell ref="W6:AA6"/>
     <mergeCell ref="BP6:BT6"/>
     <mergeCell ref="BU6:BY6"/>
     <mergeCell ref="BK6:BO6"/>
@@ -9958,13 +9865,6 @@
     <mergeCell ref="AV6:AZ6"/>
     <mergeCell ref="BA6:BE6"/>
     <mergeCell ref="AG6:AK6"/>
-    <mergeCell ref="AB6:AF6"/>
-    <mergeCell ref="R6:V6"/>
-    <mergeCell ref="C8:G8"/>
-    <mergeCell ref="BF6:BJ6"/>
-    <mergeCell ref="H6:L6"/>
-    <mergeCell ref="M6:Q6"/>
-    <mergeCell ref="W6:AA6"/>
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <conditionalFormatting sqref="G9:G14">
@@ -10027,7 +9927,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
+  <conditionalFormatting sqref="G20:G32">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="percent" val="0"/>
